--- a/Projects/Federal Reserve Data/Disaggregated C&A  Diff-in-DiffDAGOLS 2005-12-31 to 2008-09-30.xlsx
+++ b/Projects/Federal Reserve Data/Disaggregated C&A  Diff-in-DiffDAGOLS 2005-12-31 to 2008-09-30.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
-    <t>C Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>U Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>$\pi$ Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>FFR Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>A Diff-in-Diff</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$\pi$</t>
+  </si>
+  <si>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Constant</t>
@@ -37,79 +37,79 @@
     <t>r2_adj</t>
   </si>
   <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>-1.496**</t>
-  </si>
-  <si>
-    <t>6.663</t>
-  </si>
-  <si>
-    <t>-3.887***</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.971*</t>
-  </si>
-  <si>
-    <t>-0.503*</t>
-  </si>
-  <si>
-    <t>18.841**</t>
-  </si>
-  <si>
-    <t>0.114</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>0.336*</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>-2.95</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.301**</t>
-  </si>
-  <si>
-    <t>-0.415*</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>11.946</t>
-  </si>
-  <si>
-    <t>-1.862***</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.021**</t>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>0.019</t>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>2.237*</t>
+  </si>
+  <si>
+    <t>-0.404</t>
+  </si>
+  <si>
+    <t>-6.431</t>
+  </si>
+  <si>
+    <t>-0.681</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>1.226***</t>
+  </si>
+  <si>
+    <t>-0.429***</t>
+  </si>
+  <si>
+    <t>8.865*</t>
+  </si>
+  <si>
+    <t>0.406*</t>
+  </si>
+  <si>
+    <t>0.075*</t>
+  </si>
+  <si>
+    <t>0.268***</t>
+  </si>
+  <si>
+    <t>0.178***</t>
+  </si>
+  <si>
+    <t>-0.76</t>
+  </si>
+  <si>
+    <t>-0.036</t>
+  </si>
+  <si>
+    <t>-0.137</t>
+  </si>
+  <si>
+    <t>-0.954***</t>
+  </si>
+  <si>
+    <t>1.811***</t>
+  </si>
+  <si>
+    <t>-6.257</t>
+  </si>
+  <si>
+    <t>-0.45</t>
+  </si>
+  <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t>0.015*</t>
+  </si>
+  <si>
+    <t>-0.006</t>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t>-0.021**</t>
   </si>
 </sst>
 </file>
@@ -600,19 +600,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.63</v>
+        <v>0.23</v>
       </c>
       <c r="C8">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="E8">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
